--- a/Mifos Automation Excels/Client/4275-MS-EI-DB-DL-REC-RNI-FEE-FFConMONTHLYonLASTSUNDAY-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-MORE-PER-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/4275-MS-EI-DB-DL-REC-RNI-FEE-FFConMONTHLYonLASTSUNDAY-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-MORE-PER-Makerepayment1.xlsx
@@ -780,10 +780,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -798,14 +798,15 @@
     <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.5703125" customWidth="1"/>
     <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="15" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
@@ -847,11 +848,12 @@
       <c r="O1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="12">
@@ -878,8 +880,9 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -921,11 +924,12 @@
       <c r="O3" s="3">
         <v>0</v>
       </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -965,11 +969,12 @@
       <c r="O4" s="3">
         <v>0</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1009,11 +1014,12 @@
       <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1053,11 +1059,12 @@
       <c r="O6" s="3">
         <v>0</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1097,11 +1104,12 @@
       <c r="O7" s="3">
         <v>0</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1141,11 +1149,12 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1185,11 +1194,12 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1229,11 +1239,12 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1273,11 +1284,12 @@
       <c r="O11" s="3">
         <v>0</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1317,11 +1329,12 @@
       <c r="O12" s="3">
         <v>0</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1361,11 +1374,12 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1405,7 +1419,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3">
         <v>666.97</v>
       </c>
     </row>
